--- a/ER_Presse-format-ids-clean.xlsx
+++ b/ER_Presse-format-ids-clean.xlsx
@@ -3023,12 +3023,13 @@
   <dimension ref="A1:H971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="118.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
